--- a/stripped/S60006.mes.bin.xlsx
+++ b/stripped/S60006.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC02750-A923-4816-A8E0-51B8416C5308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3EB0B4-0E9F-4E45-878E-C9386CFDAE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60006.mes.bin" sheetId="1" r:id="rId1"/>

--- a/stripped/S60006.mes.bin.xlsx
+++ b/stripped/S60006.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3EB0B4-0E9F-4E45-878E-C9386CFDAE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6130BF-C9CC-41D6-8836-8987E317361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60006.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="186">
   <si>
     <t>Status</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>251</t>
+  </si>
+  <si>
+    <t>Her serene voice causes me to look up, only to be blinded by\nthe glare of a streetlight as she suddenly opens her door.</t>
   </si>
   <si>
     <t>253</t>
@@ -982,7 +985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2916,7 +2921,9 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
+      <c r="F127" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -2925,7 +2932,7 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -2939,7 +2946,7 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -2953,7 +2960,7 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -2967,7 +2974,7 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -2981,7 +2988,7 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -2995,7 +3002,7 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
@@ -3003,7 +3010,7 @@
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
@@ -3013,7 +3020,7 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
@@ -3021,7 +3028,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -3031,7 +3038,7 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -3045,7 +3052,7 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
@@ -3053,7 +3060,7 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -3063,7 +3070,7 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
@@ -3079,7 +3086,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
@@ -3095,7 +3102,7 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -3109,7 +3116,7 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
@@ -3125,7 +3132,7 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -3139,7 +3146,7 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
@@ -3155,7 +3162,7 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -3169,7 +3176,7 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3183,7 +3190,7 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
@@ -3199,7 +3206,7 @@
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
@@ -3215,7 +3222,7 @@
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -3229,7 +3236,7 @@
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
@@ -3245,7 +3252,7 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
@@ -3253,7 +3260,7 @@
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
@@ -3263,7 +3270,7 @@
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -3277,7 +3284,7 @@
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
@@ -3293,7 +3300,7 @@
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -3307,7 +3314,7 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
@@ -3323,7 +3330,7 @@
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
@@ -3339,7 +3346,7 @@
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -3353,7 +3360,7 @@
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
@@ -3369,7 +3376,7 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
@@ -3385,7 +3392,7 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3399,7 +3406,7 @@
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
@@ -3415,7 +3422,7 @@
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
@@ -3431,7 +3438,7 @@
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -3445,7 +3452,7 @@
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -3459,7 +3466,7 @@
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -3473,7 +3480,7 @@
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3487,7 +3494,7 @@
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -3501,7 +3508,7 @@
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
